--- a/data/other_parameters.xlsx
+++ b/data/other_parameters.xlsx
@@ -5,27 +5,60 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugra\OneDrive\Belgeler\veri_proje\veri_dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugra\OneDrive\Belgeler\emu430-fall2024-team-quantr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F143979-D5B2-4AF4-901D-800465E6A07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4125E96-93CF-49C1-BE19-410DA3E36649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18084" yWindow="1260" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1764" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="18">
   <si>
     <t>Index</t>
   </si>
@@ -73,6 +106,12 @@
   </si>
   <si>
     <t>Turkey</t>
+  </si>
+  <si>
+    <t>Total Population, as of 1 January (thousands)</t>
+  </si>
+  <si>
+    <t>Teenage Birth Percentage</t>
   </si>
 </sst>
 </file>
@@ -127,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -174,12 +213,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,6 +264,9 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -496,15 +549,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J297"/>
+  <dimension ref="A1:L297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="84" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="84" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +588,14 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>11179</v>
       </c>
@@ -567,8 +626,15 @@
       <c r="J2" s="10">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="10">
+        <v>20715.337</v>
+      </c>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2:L297">(F2:F297/K2:K297)*100</f>
+        <v>0.77377452271232661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>11180</v>
       </c>
@@ -599,8 +665,14 @@
       <c r="J3" s="10">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="10">
+        <v>21326.941999999999</v>
+      </c>
+      <c r="L3">
+        <v>0.77785647843933747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>11181</v>
       </c>
@@ -631,8 +703,14 @@
       <c r="J4" s="10">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="10">
+        <v>21960.819</v>
+      </c>
+      <c r="L4">
+        <v>0.77559493568978466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>11182</v>
       </c>
@@ -663,8 +741,14 @@
       <c r="J5" s="10">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="10">
+        <v>22619.365000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.76885005392503281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>11183</v>
       </c>
@@ -695,8 +779,14 @@
       <c r="J6" s="10">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="10">
+        <v>23297.731</v>
+      </c>
+      <c r="L6">
+        <v>0.76183813779977116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>11184</v>
       </c>
@@ -727,8 +817,14 @@
       <c r="J7" s="10">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="10">
+        <v>23974.487000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.75596195238713548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>11185</v>
       </c>
@@ -759,8 +855,14 @@
       <c r="J8" s="10">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="10">
+        <v>24646.534</v>
+      </c>
+      <c r="L8">
+        <v>0.74974030831272265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>11186</v>
       </c>
@@ -791,8 +893,14 @@
       <c r="J9" s="10">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="10">
+        <v>25468.669000000002</v>
+      </c>
+      <c r="L9">
+        <v>0.73987769050671626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>11187</v>
       </c>
@@ -823,8 +931,14 @@
       <c r="J10" s="10">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="10">
+        <v>26293.159</v>
+      </c>
+      <c r="L10">
+        <v>0.73012527707302122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>11188</v>
       </c>
@@ -855,8 +969,14 @@
       <c r="J11" s="10">
         <v>104.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="10">
+        <v>27116.764999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.7275277858549869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11189</v>
       </c>
@@ -887,8 +1007,14 @@
       <c r="J12" s="10">
         <v>104.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="10">
+        <v>27935.918000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.71154275295338432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>11190</v>
       </c>
@@ -919,8 +1045,14 @@
       <c r="J13" s="10">
         <v>104.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="10">
+        <v>28723.879000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.71035670356360991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>11191</v>
       </c>
@@ -951,8 +1083,14 @@
       <c r="J14" s="10">
         <v>104.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="10">
+        <v>29514.597000000002</v>
+      </c>
+      <c r="L14">
+        <v>0.69728209400927954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>11192</v>
       </c>
@@ -983,8 +1121,14 @@
       <c r="J15" s="10">
         <v>104.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="10">
+        <v>30317.697</v>
+      </c>
+      <c r="L15">
+        <v>0.68444842627723335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>11193</v>
       </c>
@@ -1015,8 +1159,14 @@
       <c r="J16" s="10">
         <v>104.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="10">
+        <v>31135.985000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.66783819429512181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>11194</v>
       </c>
@@ -1047,8 +1197,14 @@
       <c r="J17" s="10">
         <v>104.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="10">
+        <v>31950.16</v>
+      </c>
+      <c r="L17">
+        <v>0.64069788695893859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>11195</v>
       </c>
@@ -1079,8 +1235,14 @@
       <c r="J18" s="10">
         <v>104.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="10">
+        <v>32740.28</v>
+      </c>
+      <c r="L18">
+        <v>0.6263049674590444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>11196</v>
       </c>
@@ -1111,8 +1273,14 @@
       <c r="J19" s="10">
         <v>104.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="10">
+        <v>33615.063999999998</v>
+      </c>
+      <c r="L19">
+        <v>0.62279221006391661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>11197</v>
       </c>
@@ -1143,8 +1311,14 @@
       <c r="J20" s="10">
         <v>104.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="10">
+        <v>34485.779000000002</v>
+      </c>
+      <c r="L20">
+        <v>0.62328880551023647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>11198</v>
       </c>
@@ -1175,8 +1349,14 @@
       <c r="J21" s="10">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="10">
+        <v>35357.589</v>
+      </c>
+      <c r="L21">
+        <v>0.62504827464338708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>11199</v>
       </c>
@@ -1207,8 +1387,14 @@
       <c r="J22" s="10">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="10">
+        <v>36217.959000000003</v>
+      </c>
+      <c r="L22">
+        <v>0.62408265468520741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>11200</v>
       </c>
@@ -1239,8 +1425,14 @@
       <c r="J23" s="10">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="10">
+        <v>37058.97</v>
+      </c>
+      <c r="L23">
+        <v>0.64435681833574965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>11201</v>
       </c>
@@ -1271,8 +1463,14 @@
       <c r="J24" s="10">
         <v>104.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="10">
+        <v>37978.252</v>
+      </c>
+      <c r="L24">
+        <v>0.64621457564713614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>11202</v>
       </c>
@@ -1303,8 +1501,14 @@
       <c r="J25" s="10">
         <v>104.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="10">
+        <v>38882.19</v>
+      </c>
+      <c r="L25">
+        <v>0.64280329888825705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>11203</v>
       </c>
@@ -1335,8 +1539,14 @@
       <c r="J26" s="10">
         <v>104.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="10">
+        <v>39776.875999999997</v>
+      </c>
+      <c r="L26">
+        <v>0.62564239584828141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>11204</v>
       </c>
@@ -1367,8 +1577,14 @@
       <c r="J27" s="10">
         <v>104.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="10">
+        <v>40643.591</v>
+      </c>
+      <c r="L27">
+        <v>0.58943118485765689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>11205</v>
       </c>
@@ -1399,8 +1615,14 @@
       <c r="J28" s="10">
         <v>104.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="10">
+        <v>41462.661999999997</v>
+      </c>
+      <c r="L28">
+        <v>0.57105354210011894</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>11206</v>
       </c>
@@ -1431,8 +1653,14 @@
       <c r="J29" s="10">
         <v>104.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="10">
+        <v>42337.307000000001</v>
+      </c>
+      <c r="L29">
+        <v>0.5606520981601405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>11207</v>
       </c>
@@ -1463,8 +1691,14 @@
       <c r="J30" s="10">
         <v>104.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="10">
+        <v>43209.288999999997</v>
+      </c>
+      <c r="L30">
+        <v>0.56636895830431278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>11208</v>
       </c>
@@ -1495,8 +1729,14 @@
       <c r="J31" s="10">
         <v>104.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="10">
+        <v>44081.322999999997</v>
+      </c>
+      <c r="L31">
+        <v>0.57742141722924245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>11209</v>
       </c>
@@ -1527,8 +1767,14 @@
       <c r="J32" s="10">
         <v>104.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="10">
+        <v>44939.536</v>
+      </c>
+      <c r="L32">
+        <v>0.5730900292339467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>11210</v>
       </c>
@@ -1559,8 +1805,14 @@
       <c r="J33" s="10">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="10">
+        <v>45878.095000000001</v>
+      </c>
+      <c r="L33">
+        <v>0.56994955871642017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>11211</v>
       </c>
@@ -1591,8 +1843,14 @@
       <c r="J34" s="10">
         <v>105.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="10">
+        <v>46764.286</v>
+      </c>
+      <c r="L34">
+        <v>0.54710767956555562</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>11212</v>
       </c>
@@ -1623,8 +1881,14 @@
       <c r="J35" s="10">
         <v>105.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="10">
+        <v>47879.906000000003</v>
+      </c>
+      <c r="L35">
+        <v>0.52452066217506765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>11213</v>
       </c>
@@ -1655,8 +1919,14 @@
       <c r="J36" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="10">
+        <v>49014.915000000001</v>
+      </c>
+      <c r="L36">
+        <v>0.49475144453479114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>11214</v>
       </c>
@@ -1687,8 +1957,14 @@
       <c r="J37" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="10">
+        <v>50133.224000000002</v>
+      </c>
+      <c r="L37">
+        <v>0.46944317804097341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>11215</v>
       </c>
@@ -1719,8 +1995,14 @@
       <c r="J38" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="10">
+        <v>51241.006000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.44279380463373413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>11216</v>
       </c>
@@ -1751,8 +2033,14 @@
       <c r="J39" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="10">
+        <v>52314.538</v>
+      </c>
+      <c r="L39">
+        <v>0.41030850735984714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>11217</v>
       </c>
@@ -1783,8 +2071,14 @@
       <c r="J40" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="10">
+        <v>53372.802000000003</v>
+      </c>
+      <c r="L40">
+        <v>0.38122975068837495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>11218</v>
       </c>
@@ -1815,8 +2109,14 @@
       <c r="J41" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="10">
+        <v>54446.451000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.33802203195943847</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>11219</v>
       </c>
@@ -1847,8 +2147,14 @@
       <c r="J42" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="10">
+        <v>55506.995000000003</v>
+      </c>
+      <c r="L42">
+        <v>0.34607169781033897</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>11220</v>
       </c>
@@ -1879,8 +2185,14 @@
       <c r="J43" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="10">
+        <v>56524.26</v>
+      </c>
+      <c r="L43">
+        <v>0.3506565145656042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>11221</v>
       </c>
@@ -1911,8 +2223,14 @@
       <c r="J44" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="10">
+        <v>57495.514999999999</v>
+      </c>
+      <c r="L44">
+        <v>0.31745432665487039</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>11222</v>
       </c>
@@ -1943,8 +2261,14 @@
       <c r="J45" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="10">
+        <v>58484.72</v>
+      </c>
+      <c r="L45">
+        <v>0.31189514115823758</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>11223</v>
       </c>
@@ -1975,8 +2299,14 @@
       <c r="J46" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="10">
+        <v>59513.614000000001</v>
+      </c>
+      <c r="L46">
+        <v>0.30383300197497665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>11224</v>
       </c>
@@ -2007,8 +2337,14 @@
       <c r="J47" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="10">
+        <v>60554.057000000001</v>
+      </c>
+      <c r="L47">
+        <v>0.29702056131433108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>11225</v>
       </c>
@@ -2039,8 +2375,14 @@
       <c r="J48" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="10">
+        <v>61494.947999999997</v>
+      </c>
+      <c r="L48">
+        <v>0.29626823979101502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>11226</v>
       </c>
@@ -2071,8 +2413,14 @@
       <c r="J49" s="10">
         <v>105.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="10">
+        <v>62407.319000000003</v>
+      </c>
+      <c r="L49">
+        <v>0.29411133652448679</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>11227</v>
       </c>
@@ -2103,8 +2451,14 @@
       <c r="J50" s="10">
         <v>106.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="10">
+        <v>63298.612999999998</v>
+      </c>
+      <c r="L50">
+        <v>0.2947457948249198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>11228</v>
       </c>
@@ -2135,8 +2489,14 @@
       <c r="J51" s="10">
         <v>106.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="10">
+        <v>64170.152999999998</v>
+      </c>
+      <c r="L51">
+        <v>0.29044967369798852</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>11229</v>
       </c>
@@ -2167,8 +2527,14 @@
       <c r="J52" s="10">
         <v>106.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="10">
+        <v>65013.692000000003</v>
+      </c>
+      <c r="L52">
+        <v>0.26725293496637603</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>11230</v>
       </c>
@@ -2199,8 +2565,14 @@
       <c r="J53" s="10">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="10">
+        <v>65838.231</v>
+      </c>
+      <c r="L53">
+        <v>0.24866099455193441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>11231</v>
       </c>
@@ -2231,8 +2603,14 @@
       <c r="J54" s="10">
         <v>105.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="10">
+        <v>66652.024999999994</v>
+      </c>
+      <c r="L54">
+        <v>0.22051543070146784</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>11232</v>
       </c>
@@ -2263,8 +2641,14 @@
       <c r="J55" s="10">
         <v>105.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="10">
+        <v>67445.566000000006</v>
+      </c>
+      <c r="L55">
+        <v>0.20138907278204171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>11233</v>
       </c>
@@ -2295,8 +2679,14 @@
       <c r="J56" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="10">
+        <v>68217.892999999996</v>
+      </c>
+      <c r="L56">
+        <v>0.19410889749995652</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>11234</v>
       </c>
@@ -2327,8 +2717,14 @@
       <c r="J57" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="10">
+        <v>68967.341</v>
+      </c>
+      <c r="L57">
+        <v>0.19126589206911718</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>11235</v>
       </c>
@@ -2359,8 +2755,14 @@
       <c r="J58" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="10">
+        <v>69691.771999999997</v>
+      </c>
+      <c r="L58">
+        <v>0.18241177739030659</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>11236</v>
       </c>
@@ -2391,8 +2793,14 @@
       <c r="J59" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" s="10">
+        <v>70398.926999999996</v>
+      </c>
+      <c r="L59">
+        <v>0.17003526204312747</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>11237</v>
       </c>
@@ -2423,8 +2831,14 @@
       <c r="J60" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60" s="10">
+        <v>71102.244999999995</v>
+      </c>
+      <c r="L60">
+        <v>0.16221288090129926</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>11238</v>
       </c>
@@ -2455,8 +2869,14 @@
       <c r="J61" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" s="10">
+        <v>72022.432000000001</v>
+      </c>
+      <c r="L61">
+        <v>0.15674560947900232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>11239</v>
       </c>
@@ -2487,8 +2907,14 @@
       <c r="J62" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62" s="10">
+        <v>72907.263999999996</v>
+      </c>
+      <c r="L62">
+        <v>0.13983517472278209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>11240</v>
       </c>
@@ -2519,8 +2945,14 @@
       <c r="J63" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63" s="10">
+        <v>73786.274000000005</v>
+      </c>
+      <c r="L63">
+        <v>0.13247179278899487</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>11241</v>
       </c>
@@ -2551,8 +2983,14 @@
       <c r="J64" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" s="10">
+        <v>74644.131999999998</v>
+      </c>
+      <c r="L64">
+        <v>0.12544187666352663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>11242</v>
       </c>
@@ -2583,8 +3021,14 @@
       <c r="J65" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="10">
+        <v>75750.264999999999</v>
+      </c>
+      <c r="L65">
+        <v>0.11782665050742729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>11243</v>
       </c>
@@ -2615,8 +3059,14 @@
       <c r="J66" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="10">
+        <v>77055.797000000006</v>
+      </c>
+      <c r="L66">
+        <v>0.1146000735025815</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>11244</v>
       </c>
@@ -2647,8 +3097,14 @@
       <c r="J67" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="10">
+        <v>79016.510999999999</v>
+      </c>
+      <c r="L67">
+        <v>0.10613731097289274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>11245</v>
       </c>
@@ -2679,8 +3135,14 @@
       <c r="J68" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="10">
+        <v>81011.941000000006</v>
+      </c>
+      <c r="L68">
+        <v>9.9050830049856459E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>11246</v>
       </c>
@@ -2711,8 +3173,14 @@
       <c r="J69" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="10">
+        <v>82292.236000000004</v>
+      </c>
+      <c r="L69">
+        <v>8.9184598167924359E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>11247</v>
       </c>
@@ -2743,8 +3211,14 @@
       <c r="J70" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70" s="10">
+        <v>83875.088000000003</v>
+      </c>
+      <c r="L70">
+        <v>7.703360025088736E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>11248</v>
       </c>
@@ -2775,8 +3249,14 @@
       <c r="J71" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="10">
+        <v>84956.849000000002</v>
+      </c>
+      <c r="L71">
+        <v>6.5869910029266746E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>11249</v>
       </c>
@@ -2807,8 +3287,14 @@
       <c r="J72" s="10">
         <v>105.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="10">
+        <v>85758.494999999995</v>
+      </c>
+      <c r="L72">
+        <v>5.6374590062477199E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>11250</v>
       </c>
@@ -2839,8 +3325,14 @@
       <c r="J73" s="10">
         <v>105.1</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="10">
+        <v>86424.888000000006</v>
+      </c>
+      <c r="L73">
+        <v>4.9247388090338039E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>11251</v>
       </c>
@@ -2871,8 +3363,14 @@
       <c r="J74" s="10">
         <v>105.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="10">
+        <v>86947.616999999998</v>
+      </c>
+      <c r="L74">
+        <v>4.3712526359405569E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>11252</v>
       </c>
@@ -2903,8 +3401,14 @@
       <c r="J75" s="10">
         <v>105</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="10">
+        <v>87169.327999999994</v>
+      </c>
+      <c r="L75">
+        <v>4.2720301801569473E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>743</v>
       </c>
@@ -2935,8 +3439,14 @@
       <c r="J76" s="10">
         <v>105.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="10">
+        <v>808647.57499999995</v>
+      </c>
+      <c r="L76">
+        <v>0.14373653442292211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>744</v>
       </c>
@@ -2967,8 +3477,14 @@
       <c r="J77" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77" s="10">
+        <v>818168.62699999998</v>
+      </c>
+      <c r="L77">
+        <v>0.13652466779320785</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>745</v>
       </c>
@@ -2999,8 +3515,14 @@
       <c r="J78" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" s="10">
+        <v>827201.70600000001</v>
+      </c>
+      <c r="L78">
+        <v>0.13005691262440411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>746</v>
       </c>
@@ -3031,8 +3553,14 @@
       <c r="J79" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" s="10">
+        <v>836593.66500000004</v>
+      </c>
+      <c r="L79">
+        <v>0.12902010201093261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>747</v>
       </c>
@@ -3063,8 +3591,14 @@
       <c r="J80" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80" s="10">
+        <v>846338.777</v>
+      </c>
+      <c r="L80">
+        <v>0.13187615058313698</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>748</v>
       </c>
@@ -3095,8 +3629,14 @@
       <c r="J81" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" s="10">
+        <v>856203.69499999995</v>
+      </c>
+      <c r="L81">
+        <v>0.1346086225427934</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>749</v>
       </c>
@@ -3127,8 +3667,14 @@
       <c r="J82" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" s="10">
+        <v>866222.38399999996</v>
+      </c>
+      <c r="L82">
+        <v>0.14163603049999227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>750</v>
       </c>
@@ -3159,8 +3705,14 @@
       <c r="J83" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" s="10">
+        <v>876107.08200000005</v>
+      </c>
+      <c r="L83">
+        <v>0.15052828896091494</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>751</v>
       </c>
@@ -3191,8 +3743,14 @@
       <c r="J84" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84" s="10">
+        <v>886659.85600000003</v>
+      </c>
+      <c r="L84">
+        <v>0.15529630564440486</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>752</v>
       </c>
@@ -3223,8 +3781,14 @@
       <c r="J85" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85" s="10">
+        <v>897328.96900000004</v>
+      </c>
+      <c r="L85">
+        <v>0.15668044257690739</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>753</v>
       </c>
@@ -3255,8 +3819,14 @@
       <c r="J86" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="10">
+        <v>907821.35600000003</v>
+      </c>
+      <c r="L86">
+        <v>0.15501574078413727</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>754</v>
       </c>
@@ -3287,8 +3857,14 @@
       <c r="J87" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="10">
+        <v>918438.40800000005</v>
+      </c>
+      <c r="L87">
+        <v>0.15032722803987961</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>755</v>
       </c>
@@ -3319,8 +3895,14 @@
       <c r="J88" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88" s="10">
+        <v>929249.03599999996</v>
+      </c>
+      <c r="L88">
+        <v>0.14056511757306792</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>756</v>
       </c>
@@ -3351,8 +3933,14 @@
       <c r="J89" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89" s="10">
+        <v>939762.09</v>
+      </c>
+      <c r="L89">
+        <v>0.13731932940602021</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>757</v>
       </c>
@@ -3383,8 +3971,14 @@
       <c r="J90" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90" s="10">
+        <v>949994.52099999995</v>
+      </c>
+      <c r="L90">
+        <v>0.13955312064373476</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>758</v>
       </c>
@@ -3415,8 +4009,14 @@
       <c r="J91" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91" s="10">
+        <v>959989.58299999998</v>
+      </c>
+      <c r="L91">
+        <v>0.15056455044887712</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>759</v>
       </c>
@@ -3447,8 +4047,14 @@
       <c r="J92" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92" s="10">
+        <v>969517.11699999997</v>
+      </c>
+      <c r="L92">
+        <v>0.16243065464103609</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>760</v>
       </c>
@@ -3479,8 +4085,14 @@
       <c r="J93" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93" s="10">
+        <v>978461.07299999997</v>
+      </c>
+      <c r="L93">
+        <v>0.16502363196210668</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>761</v>
       </c>
@@ -3511,8 +4123,14 @@
       <c r="J94" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94" s="10">
+        <v>987153.929</v>
+      </c>
+      <c r="L94">
+        <v>0.1661877597612236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>762</v>
       </c>
@@ -3543,8 +4161,14 @@
       <c r="J95" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K95" s="10">
+        <v>995805.527</v>
+      </c>
+      <c r="L95">
+        <v>0.16640006056122242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>763</v>
       </c>
@@ -3575,8 +4199,14 @@
       <c r="J96" s="10">
         <v>105.8</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96" s="10">
+        <v>1004413.292</v>
+      </c>
+      <c r="L96">
+        <v>0.16798025408847336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>764</v>
       </c>
@@ -3607,8 +4237,14 @@
       <c r="J97" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97" s="10">
+        <v>1012530.89</v>
+      </c>
+      <c r="L97">
+        <v>0.1686623111320584</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>765</v>
       </c>
@@ -3639,8 +4275,14 @@
       <c r="J98" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98" s="10">
+        <v>1021869.747</v>
+      </c>
+      <c r="L98">
+        <v>0.16678955463782802</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>766</v>
       </c>
@@ -3671,8 +4313,14 @@
       <c r="J99" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99" s="10">
+        <v>1030458.046</v>
+      </c>
+      <c r="L99">
+        <v>0.16456186708255369</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>767</v>
       </c>
@@ -3703,8 +4351,14 @@
       <c r="J100" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K100" s="10">
+        <v>1038617.5</v>
+      </c>
+      <c r="L100">
+        <v>0.16531013582960041</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>768</v>
       </c>
@@ -3735,8 +4389,14 @@
       <c r="J101" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K101" s="10">
+        <v>1046422.612</v>
+      </c>
+      <c r="L101">
+        <v>0.16115582563500647</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>769</v>
       </c>
@@ -3767,8 +4427,14 @@
       <c r="J102" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K102" s="10">
+        <v>1053528.389</v>
+      </c>
+      <c r="L102">
+        <v>0.15710217373174176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>770</v>
       </c>
@@ -3799,8 +4465,14 @@
       <c r="J103" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K103" s="10">
+        <v>1060604.5449999999</v>
+      </c>
+      <c r="L103">
+        <v>0.1546610381534807</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>771</v>
       </c>
@@ -3831,8 +4503,14 @@
       <c r="J104" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K104" s="10">
+        <v>1067629.075</v>
+      </c>
+      <c r="L104">
+        <v>0.15155385310202421</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>772</v>
       </c>
@@ -3863,8 +4541,14 @@
       <c r="J105" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K105" s="10">
+        <v>1074379.2930000001</v>
+      </c>
+      <c r="L105">
+        <v>0.15047628063323068</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>773</v>
       </c>
@@ -3895,8 +4579,14 @@
       <c r="J106" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K106" s="10">
+        <v>1081348.4269999999</v>
+      </c>
+      <c r="L106">
+        <v>0.14942436310586135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>774</v>
       </c>
@@ -3927,8 +4617,14 @@
       <c r="J107" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K107" s="10">
+        <v>1088666.503</v>
+      </c>
+      <c r="L107">
+        <v>0.1420100642152301</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>775</v>
       </c>
@@ -3959,8 +4655,14 @@
       <c r="J108" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K108" s="10">
+        <v>1095041.9790000001</v>
+      </c>
+      <c r="L108">
+        <v>0.13767727894566861</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>776</v>
       </c>
@@ -3991,8 +4693,14 @@
       <c r="J109" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K109" s="10">
+        <v>1101258.1569999999</v>
+      </c>
+      <c r="L109">
+        <v>0.13134440737677097</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>777</v>
       </c>
@@ -4023,8 +4731,14 @@
       <c r="J110" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K110" s="10">
+        <v>1107488.933</v>
+      </c>
+      <c r="L110">
+        <v>0.12533895000104711</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>778</v>
       </c>
@@ -4055,8 +4769,14 @@
       <c r="J111" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K111" s="10">
+        <v>1113518.7960000001</v>
+      </c>
+      <c r="L111">
+        <v>0.12088731728961313</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>779</v>
       </c>
@@ -4087,8 +4807,14 @@
       <c r="J112" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K112" s="10">
+        <v>1119699.794</v>
+      </c>
+      <c r="L112">
+        <v>0.11825759074847164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>780</v>
       </c>
@@ -4119,8 +4845,14 @@
       <c r="J113" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K113" s="10">
+        <v>1126282.8030000001</v>
+      </c>
+      <c r="L113">
+        <v>0.11737149821331327</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>781</v>
       </c>
@@ -4151,8 +4883,14 @@
       <c r="J114" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K114" s="10">
+        <v>1132822.676</v>
+      </c>
+      <c r="L114">
+        <v>0.11824789778484272</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>782</v>
       </c>
@@ -4183,8 +4921,14 @@
       <c r="J115" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K115" s="10">
+        <v>1139580.1429999999</v>
+      </c>
+      <c r="L115">
+        <v>0.12062872527605986</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>783</v>
       </c>
@@ -4215,8 +4959,14 @@
       <c r="J116" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K116" s="10">
+        <v>1145889.7180000001</v>
+      </c>
+      <c r="L116">
+        <v>0.12295362964413997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>784</v>
       </c>
@@ -4247,8 +4997,14 @@
       <c r="J117" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K117" s="10">
+        <v>1152799.915</v>
+      </c>
+      <c r="L117">
+        <v>0.12087795825349275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>785</v>
       </c>
@@ -4279,8 +5035,14 @@
       <c r="J118" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K118" s="10">
+        <v>1159112.402</v>
+      </c>
+      <c r="L118">
+        <v>0.11552089320152059</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>786</v>
       </c>
@@ -4311,8 +5073,14 @@
       <c r="J119" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K119" s="10">
+        <v>1163504.747</v>
+      </c>
+      <c r="L119">
+        <v>0.11074445577659513</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>787</v>
       </c>
@@ -4343,8 +5111,14 @@
       <c r="J120" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K120" s="10">
+        <v>1167949.7560000001</v>
+      </c>
+      <c r="L120">
+        <v>0.1083228960407437</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>788</v>
       </c>
@@ -4375,8 +5149,14 @@
       <c r="J121" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K121" s="10">
+        <v>1172917.327</v>
+      </c>
+      <c r="L121">
+        <v>0.103128922401877</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>789</v>
       </c>
@@ -4407,8 +5187,14 @@
       <c r="J122" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K122" s="10">
+        <v>1176302.202</v>
+      </c>
+      <c r="L122">
+        <v>9.817851212353676E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>790</v>
       </c>
@@ -4439,8 +5225,14 @@
       <c r="J123" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K123" s="10">
+        <v>1179957.7080000001</v>
+      </c>
+      <c r="L123">
+        <v>9.4465928095788992E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <v>791</v>
       </c>
@@ -4471,8 +5263,14 @@
       <c r="J124" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K124" s="10">
+        <v>1183287.7080000001</v>
+      </c>
+      <c r="L124">
+        <v>9.2221696601956074E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>792</v>
       </c>
@@ -4503,8 +5301,14 @@
       <c r="J125" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K125" s="10">
+        <v>1185709.9539999999</v>
+      </c>
+      <c r="L125">
+        <v>8.8426768828492097E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <v>793</v>
       </c>
@@ -4535,8 +5339,14 @@
       <c r="J126" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K126" s="10">
+        <v>1188836.6170000001</v>
+      </c>
+      <c r="L126">
+        <v>8.5892711025067625E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>794</v>
       </c>
@@ -4567,8 +5377,14 @@
       <c r="J127" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K127" s="10">
+        <v>1192527.439</v>
+      </c>
+      <c r="L127">
+        <v>8.2686399302213456E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>795</v>
       </c>
@@ -4599,8 +5415,14 @@
       <c r="J128" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K128" s="10">
+        <v>1196218.2290000001</v>
+      </c>
+      <c r="L128">
+        <v>8.0928293561391626E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>796</v>
       </c>
@@ -4631,8 +5453,14 @@
       <c r="J129" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K129" s="10">
+        <v>1201586.737</v>
+      </c>
+      <c r="L129">
+        <v>7.9539493119421809E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>797</v>
       </c>
@@ -4663,8 +5491,14 @@
       <c r="J130" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K130" s="10">
+        <v>1205932.477</v>
+      </c>
+      <c r="L130">
+        <v>7.8792802924072841E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>798</v>
       </c>
@@ -4695,8 +5529,14 @@
       <c r="J131" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K131" s="10">
+        <v>1210541.7409999999</v>
+      </c>
+      <c r="L131">
+        <v>7.7077474356995343E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>799</v>
       </c>
@@ -4727,8 +5567,14 @@
       <c r="J132" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K132" s="10">
+        <v>1214802.1629999999</v>
+      </c>
+      <c r="L132">
+        <v>7.7662522239022397E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>800</v>
       </c>
@@ -4759,8 +5605,14 @@
       <c r="J133" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K133" s="10">
+        <v>1219335.797</v>
+      </c>
+      <c r="L133">
+        <v>7.7834178438378115E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>801</v>
       </c>
@@ -4791,8 +5643,14 @@
       <c r="J134" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K134" s="10">
+        <v>1225112.325</v>
+      </c>
+      <c r="L134">
+        <v>7.6942659114950962E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>802</v>
       </c>
@@ -4823,8 +5681,14 @@
       <c r="J135" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K135" s="10">
+        <v>1230654.192</v>
+      </c>
+      <c r="L135">
+        <v>7.252045341426018E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>803</v>
       </c>
@@ -4855,8 +5719,14 @@
       <c r="J136" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K136" s="10">
+        <v>1235728.699</v>
+      </c>
+      <c r="L136">
+        <v>6.533626682404986E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>804</v>
       </c>
@@ -4887,8 +5757,14 @@
       <c r="J137" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K137" s="10">
+        <v>1240683.2930000001</v>
+      </c>
+      <c r="L137">
+        <v>5.8945018775230659E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>805</v>
       </c>
@@ -4919,8 +5795,14 @@
       <c r="J138" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K138" s="10">
+        <v>1245527.1540000001</v>
+      </c>
+      <c r="L138">
+        <v>5.4744932521960901E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>806</v>
       </c>
@@ -4951,8 +5833,14 @@
       <c r="J139" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K139" s="10">
+        <v>1250104.327</v>
+      </c>
+      <c r="L139">
+        <v>4.9408836259471643E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>807</v>
       </c>
@@ -4983,8 +5871,14 @@
       <c r="J140" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K140" s="10">
+        <v>1254725.277</v>
+      </c>
+      <c r="L140">
+        <v>4.5692552027865145E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>808</v>
       </c>
@@ -5015,8 +5909,14 @@
       <c r="J141" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K141" s="10">
+        <v>1259516.987</v>
+      </c>
+      <c r="L141">
+        <v>4.1841992243015297E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <v>809</v>
       </c>
@@ -5047,8 +5947,14 @@
       <c r="J142" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K142" s="10">
+        <v>1265061.213</v>
+      </c>
+      <c r="L142">
+        <v>3.8682871229567928E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <v>810</v>
       </c>
@@ -5079,8 +5985,14 @@
       <c r="J143" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K143" s="10">
+        <v>1270670.7890000001</v>
+      </c>
+      <c r="L143">
+        <v>3.5175358076166494E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>811</v>
       </c>
@@ -5111,8 +6023,14 @@
       <c r="J144" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K144" s="10">
+        <v>1275682.044</v>
+      </c>
+      <c r="L144">
+        <v>3.231345945008849E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>812</v>
       </c>
@@ -5143,8 +6061,14 @@
       <c r="J145" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K145" s="10">
+        <v>1280270.2919999999</v>
+      </c>
+      <c r="L145">
+        <v>3.016870753101877E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>813</v>
       </c>
@@ -5175,8 +6099,14 @@
       <c r="J146" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K146" s="10">
+        <v>1284479.1780000001</v>
+      </c>
+      <c r="L146">
+        <v>2.7860397126655487E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>814</v>
       </c>
@@ -5207,8 +6137,14 @@
       <c r="J147" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K147" s="10">
+        <v>1284274.067</v>
+      </c>
+      <c r="L147">
+        <v>2.6181561135579637E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>815</v>
       </c>
@@ -5239,8 +6175,14 @@
       <c r="J148" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K148" s="10">
+        <v>1283923.7790000001</v>
+      </c>
+      <c r="L148">
+        <v>2.5453224353748805E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <v>816</v>
       </c>
@@ -5271,8 +6213,14 @@
       <c r="J149" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K149" s="10">
+        <v>1283629.551</v>
+      </c>
+      <c r="L149">
+        <v>2.5198781046136886E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>817</v>
       </c>
@@ -5303,8 +6251,14 @@
       <c r="J150" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K150" s="10">
+        <v>1662776.4269999999</v>
+      </c>
+      <c r="L150">
+        <v>0.56109780295796796</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <v>818</v>
       </c>
@@ -5335,8 +6289,14 @@
       <c r="J151" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K151" s="10">
+        <v>1696593.0660000001</v>
+      </c>
+      <c r="L151">
+        <v>0.55739176291081216</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <v>819</v>
       </c>
@@ -5367,8 +6327,14 @@
       <c r="J152" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K152" s="10">
+        <v>1731890.6710000001</v>
+      </c>
+      <c r="L152">
+        <v>0.57497578610145417</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <v>820</v>
       </c>
@@ -5399,8 +6365,14 @@
       <c r="J153" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K153" s="10">
+        <v>1772486.6370000001</v>
+      </c>
+      <c r="L153">
+        <v>0.56224897790301365</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <v>821</v>
       </c>
@@ -5431,8 +6403,14 @@
       <c r="J154" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K154" s="10">
+        <v>1812793.392</v>
+      </c>
+      <c r="L154">
+        <v>0.56187351768546168</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <v>822</v>
       </c>
@@ -5463,8 +6441,14 @@
       <c r="J155" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K155" s="10">
+        <v>1856453.8559999999</v>
+      </c>
+      <c r="L155">
+        <v>0.55317959920249149</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <v>823</v>
       </c>
@@ -5495,8 +6479,14 @@
       <c r="J156" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K156" s="10">
+        <v>1901547.65</v>
+      </c>
+      <c r="L156">
+        <v>0.53638340327679923</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>824</v>
       </c>
@@ -5527,8 +6517,14 @@
       <c r="J157" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K157" s="10">
+        <v>1946942.872</v>
+      </c>
+      <c r="L157">
+        <v>0.53792929164076675</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <v>825</v>
       </c>
@@ -5559,8 +6555,14 @@
       <c r="J158" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K158" s="10">
+        <v>1995526.8640000001</v>
+      </c>
+      <c r="L158">
+        <v>0.51600122182068497</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <v>826</v>
       </c>
@@ -5591,8 +6593,14 @@
       <c r="J159" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K159" s="10">
+        <v>2042983.652</v>
+      </c>
+      <c r="L159">
+        <v>0.49417977427848747</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <v>827</v>
       </c>
@@ -5623,8 +6631,14 @@
       <c r="J160" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K160" s="10">
+        <v>2083766.7250000001</v>
+      </c>
+      <c r="L160">
+        <v>0.48880173955172446</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <v>828</v>
       </c>
@@ -5655,8 +6669,14 @@
       <c r="J161" s="10">
         <v>105.2</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K161" s="10">
+        <v>2120915.2999999998</v>
+      </c>
+      <c r="L161">
+        <v>0.48074248886789589</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
         <v>829</v>
       </c>
@@ -5687,8 +6707,14 @@
       <c r="J162" s="10">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K162" s="10">
+        <v>2161136.605</v>
+      </c>
+      <c r="L162">
+        <v>0.51741509417448417</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <v>830</v>
       </c>
@@ -5719,8 +6745,14 @@
       <c r="J163" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K163" s="10">
+        <v>2216600.8990000002</v>
+      </c>
+      <c r="L163">
+        <v>0.54045371926919883</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <v>831</v>
       </c>
@@ -5751,8 +6783,14 @@
       <c r="J164" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K164" s="10">
+        <v>2279258.145</v>
+      </c>
+      <c r="L164">
+        <v>0.5242774727476075</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
         <v>832</v>
       </c>
@@ -5783,8 +6821,14 @@
       <c r="J165" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K165" s="10">
+        <v>2339732.4300000002</v>
+      </c>
+      <c r="L165">
+        <v>0.52328846850235766</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
         <v>833</v>
       </c>
@@ -5815,8 +6859,14 @@
       <c r="J166" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K166" s="10">
+        <v>2399828.2769999998</v>
+      </c>
+      <c r="L166">
+        <v>0.51656675266352825</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <v>834</v>
       </c>
@@ -5847,8 +6897,14 @@
       <c r="J167" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K167" s="10">
+        <v>2460275.7829999998</v>
+      </c>
+      <c r="L167">
+        <v>0.506984057892505</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
         <v>835</v>
       </c>
@@ -5879,8 +6935,14 @@
       <c r="J168" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K168" s="10">
+        <v>2520934.9750000001</v>
+      </c>
+      <c r="L168">
+        <v>0.52428337625011534</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <v>836</v>
       </c>
@@ -5911,8 +6973,14 @@
       <c r="J169" s="10">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K169" s="10">
+        <v>2586480.071</v>
+      </c>
+      <c r="L169">
+        <v>0.52172657935008693</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
         <v>837</v>
       </c>
@@ -5943,8 +7011,14 @@
       <c r="J170" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K170" s="10">
+        <v>2652284.2689999999</v>
+      </c>
+      <c r="L170">
+        <v>0.52272594465250366</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <v>838</v>
       </c>
@@ -5975,8 +7049,14 @@
       <c r="J171" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K171" s="10">
+        <v>2720139.1359999999</v>
+      </c>
+      <c r="L171">
+        <v>0.52044981128494749</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
         <v>839</v>
       </c>
@@ -6007,8 +7087,14 @@
       <c r="J172" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K172" s="10">
+        <v>2785155.9580000001</v>
+      </c>
+      <c r="L172">
+        <v>0.51684857929237726</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="7">
         <v>840</v>
       </c>
@@ -6039,8 +7125,14 @@
       <c r="J173" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K173" s="10">
+        <v>2852351.608</v>
+      </c>
+      <c r="L173">
+        <v>0.51429662313917646</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
         <v>841</v>
       </c>
@@ -6071,8 +7163,14 @@
       <c r="J174" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K174" s="10">
+        <v>2920182.93</v>
+      </c>
+      <c r="L174">
+        <v>0.50546751192741202</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
         <v>842</v>
       </c>
@@ -6103,8 +7201,14 @@
       <c r="J175" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K175" s="10">
+        <v>2987609.15</v>
+      </c>
+      <c r="L175">
+        <v>0.49136042443838412</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
         <v>843</v>
       </c>
@@ -6135,8 +7239,14 @@
       <c r="J176" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K176" s="10">
+        <v>3053910.4040000001</v>
+      </c>
+      <c r="L176">
+        <v>0.48465924149620199</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <v>844</v>
       </c>
@@ -6167,8 +7277,14 @@
       <c r="J177" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K177" s="10">
+        <v>3120449.4169999999</v>
+      </c>
+      <c r="L177">
+        <v>0.46415221221321917</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
         <v>845</v>
       </c>
@@ -6199,8 +7315,14 @@
       <c r="J178" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K178" s="10">
+        <v>3187044.5550000002</v>
+      </c>
+      <c r="L178">
+        <v>0.4585913923628846</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <v>846</v>
       </c>
@@ -6231,8 +7353,14 @@
       <c r="J179" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K179" s="10">
+        <v>3255142.08</v>
+      </c>
+      <c r="L179">
+        <v>0.46518777453793969</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
         <v>847</v>
       </c>
@@ -6263,8 +7391,14 @@
       <c r="J180" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K180" s="10">
+        <v>3326209.2560000001</v>
+      </c>
+      <c r="L180">
+        <v>0.46667815538061258</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="7">
         <v>848</v>
       </c>
@@ -6295,8 +7429,14 @@
       <c r="J181" s="10">
         <v>105.8</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K181" s="10">
+        <v>3398988.287</v>
+      </c>
+      <c r="L181">
+        <v>0.47549522491190627</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="7">
         <v>849</v>
       </c>
@@ -6327,8 +7467,14 @@
       <c r="J182" s="10">
         <v>105.8</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K182" s="10">
+        <v>3474857.844</v>
+      </c>
+      <c r="L182">
+        <v>0.48720744157152918</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
         <v>850</v>
       </c>
@@ -6359,8 +7505,14 @@
       <c r="J183" s="10">
         <v>105.8</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K183" s="10">
+        <v>3554188.8620000002</v>
+      </c>
+      <c r="L183">
+        <v>0.4826547959622749</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
         <v>851</v>
       </c>
@@ -6391,8 +7543,14 @@
       <c r="J184" s="10">
         <v>105.9</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K184" s="10">
+        <v>3631719.1949999998</v>
+      </c>
+      <c r="L184">
+        <v>0.480027971986419</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
         <v>852</v>
       </c>
@@ -6423,8 +7581,14 @@
       <c r="J185" s="10">
         <v>106</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K185" s="10">
+        <v>3711624.1140000001</v>
+      </c>
+      <c r="L185">
+        <v>0.4742655899233657</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
         <v>853</v>
       </c>
@@ -6455,8 +7619,14 @@
       <c r="J186" s="10">
         <v>106.2</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K186" s="10">
+        <v>3793044.227</v>
+      </c>
+      <c r="L186">
+        <v>0.46608781606489824</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
         <v>854</v>
       </c>
@@ -6487,8 +7657,14 @@
       <c r="J187" s="10">
         <v>106.4</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K187" s="10">
+        <v>3877118.852</v>
+      </c>
+      <c r="L187">
+        <v>0.44895830291663186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
         <v>855</v>
       </c>
@@ -6519,8 +7695,14 @@
       <c r="J188" s="10">
         <v>106.6</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K188" s="10">
+        <v>3963268.4640000002</v>
+      </c>
+      <c r="L188">
+        <v>0.44751094106048933</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
         <v>856</v>
       </c>
@@ -6551,8 +7733,14 @@
       <c r="J189" s="10">
         <v>106.7</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K189" s="10">
+        <v>4048313.801</v>
+      </c>
+      <c r="L189">
+        <v>0.44185248178096959</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
         <v>857</v>
       </c>
@@ -6583,8 +7771,14 @@
       <c r="J190" s="10">
         <v>107</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K190" s="10">
+        <v>4135079.8020000001</v>
+      </c>
+      <c r="L190">
+        <v>0.42390712729466207</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
         <v>858</v>
       </c>
@@ -6615,8 +7809,14 @@
       <c r="J191" s="10">
         <v>107</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K191" s="10">
+        <v>4221836.7850000001</v>
+      </c>
+      <c r="L191">
+        <v>0.41579918632501089</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="7">
         <v>859</v>
       </c>
@@ -6647,8 +7847,14 @@
       <c r="J192" s="10">
         <v>107.1</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K192" s="10">
+        <v>4303722.6809999999</v>
+      </c>
+      <c r="L192">
+        <v>0.40532676691767539</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <v>860</v>
       </c>
@@ -6679,8 +7885,14 @@
       <c r="J193" s="10">
         <v>107.2</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K193" s="10">
+        <v>4385639.8020000001</v>
+      </c>
+      <c r="L193">
+        <v>0.3949089478826287</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
         <v>861</v>
       </c>
@@ -6711,8 +7923,14 @@
       <c r="J194" s="10">
         <v>107.4</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K194" s="10">
+        <v>4465995.2889999999</v>
+      </c>
+      <c r="L194">
+        <v>0.38681151416682569</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <v>862</v>
       </c>
@@ -6743,8 +7961,14 @@
       <c r="J195" s="10">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K195" s="10">
+        <v>4544240.1390000004</v>
+      </c>
+      <c r="L195">
+        <v>0.38438587014998415</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <v>863</v>
       </c>
@@ -6775,8 +7999,14 @@
       <c r="J196" s="10">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K196" s="10">
+        <v>4624298.2960000001</v>
+      </c>
+      <c r="L196">
+        <v>0.37338560133405374</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <v>864</v>
       </c>
@@ -6807,8 +8037,14 @@
       <c r="J197" s="10">
         <v>107.6</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K197" s="10">
+        <v>4703553.2609999999</v>
+      </c>
+      <c r="L197">
+        <v>0.36638568851532777</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
         <v>865</v>
       </c>
@@ -6839,8 +8075,14 @@
       <c r="J198" s="10">
         <v>107.6</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K198" s="10">
+        <v>4782776.9560000002</v>
+      </c>
+      <c r="L198">
+        <v>0.3642263095322984</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <v>866</v>
       </c>
@@ -6871,8 +8113,14 @@
       <c r="J199" s="10">
         <v>107.6</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K199" s="10">
+        <v>4862358.7609999999</v>
+      </c>
+      <c r="L199">
+        <v>0.36013609568370558</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
         <v>867</v>
       </c>
@@ -6903,8 +8151,14 @@
       <c r="J200" s="10">
         <v>107.7</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K200" s="10">
+        <v>4941107.3470000001</v>
+      </c>
+      <c r="L200">
+        <v>0.357040188789082</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
         <v>868</v>
       </c>
@@ -6935,8 +8189,14 @@
       <c r="J201" s="10">
         <v>107.6</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K201" s="10">
+        <v>5020934.5839999998</v>
+      </c>
+      <c r="L201">
+        <v>0.35241253802401662</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <v>869</v>
       </c>
@@ -6967,8 +8227,14 @@
       <c r="J202" s="10">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K202" s="10">
+        <v>5100192.6670000004</v>
+      </c>
+      <c r="L202">
+        <v>0.34095182545777342</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="7">
         <v>870</v>
       </c>
@@ -6999,8 +8265,14 @@
       <c r="J203" s="10">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K203" s="10">
+        <v>5177463.051</v>
+      </c>
+      <c r="L203">
+        <v>0.33030897239714557</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="7">
         <v>871</v>
       </c>
@@ -7031,8 +8303,14 @@
       <c r="J204" s="10">
         <v>107.6</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K204" s="10">
+        <v>5255741.0020000003</v>
+      </c>
+      <c r="L204">
+        <v>0.31155016949596631</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
         <v>872</v>
       </c>
@@ -7063,8 +8341,14 @@
       <c r="J205" s="10">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K205" s="10">
+        <v>5334540.324</v>
+      </c>
+      <c r="L205">
+        <v>0.2889786010360656</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="7">
         <v>873</v>
       </c>
@@ -7095,8 +8379,14 @@
       <c r="J206" s="10">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K206" s="10">
+        <v>5414056.0350000001</v>
+      </c>
+      <c r="L206">
+        <v>0.27913063518929759</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
         <v>874</v>
       </c>
@@ -7127,8 +8417,14 @@
       <c r="J207" s="10">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K207" s="10">
+        <v>5494710.0360000003</v>
+      </c>
+      <c r="L207">
+        <v>0.27339808473198202</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="7">
         <v>875</v>
       </c>
@@ -7159,8 +8455,14 @@
       <c r="J208" s="10">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K208" s="10">
+        <v>5575459.4050000003</v>
+      </c>
+      <c r="L208">
+        <v>0.27461148737392699</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <v>876</v>
       </c>
@@ -7191,8 +8493,14 @@
       <c r="J209" s="10">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K209" s="10">
+        <v>5657689.4019999998</v>
+      </c>
+      <c r="L209">
+        <v>0.26442202703300677</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="7">
         <v>877</v>
       </c>
@@ -7223,8 +8531,14 @@
       <c r="J210" s="10">
         <v>107.4</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K210" s="10">
+        <v>5741460.5379999997</v>
+      </c>
+      <c r="L210">
+        <v>0.25642654691359301</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
         <v>878</v>
       </c>
@@ -7255,8 +8569,14 @@
       <c r="J211" s="10">
         <v>107.3</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K211" s="10">
+        <v>5825591.7659999998</v>
+      </c>
+      <c r="L211">
+        <v>0.25177606995402363</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="7">
         <v>879</v>
       </c>
@@ -7287,8 +8607,14 @@
       <c r="J212" s="10">
         <v>107.3</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K212" s="10">
+        <v>5910045.318</v>
+      </c>
+      <c r="L212">
+        <v>0.2482180458975628</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
         <v>880</v>
       </c>
@@ -7319,8 +8645,14 @@
       <c r="J213" s="10">
         <v>107.1</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K213" s="10">
+        <v>5996728.1699999999</v>
+      </c>
+      <c r="L213">
+        <v>0.24011810426951535</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="7">
         <v>881</v>
       </c>
@@ -7351,8 +8683,14 @@
       <c r="J214" s="10">
         <v>107</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K214" s="10">
+        <v>6082029.3959999997</v>
+      </c>
+      <c r="L214">
+        <v>0.2282923362575606</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
         <v>882</v>
       </c>
@@ -7383,8 +8721,14 @@
       <c r="J215" s="10">
         <v>106.9</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K215" s="10">
+        <v>6166960.8279999997</v>
+      </c>
+      <c r="L215">
+        <v>0.21078008053791389</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="7">
         <v>883</v>
       </c>
@@ -7415,8 +8759,14 @@
       <c r="J216" s="10">
         <v>106.8</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K216" s="10">
+        <v>6249444.7149999999</v>
+      </c>
+      <c r="L216">
+        <v>0.2004315354600269</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="7">
         <v>884</v>
       </c>
@@ -7447,8 +8797,14 @@
       <c r="J217" s="10">
         <v>106.6</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K217" s="10">
+        <v>6331932.3339999998</v>
+      </c>
+      <c r="L217">
+        <v>0.19489773972685664</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
         <v>885</v>
       </c>
@@ -7479,8 +8835,14 @@
       <c r="J218" s="10">
         <v>106.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K218" s="10">
+        <v>6412950.7410000004</v>
+      </c>
+      <c r="L218">
+        <v>0.18949227104315911</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
         <v>886</v>
       </c>
@@ -7511,8 +8873,14 @@
       <c r="J219" s="10">
         <v>106.4</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K219" s="10">
+        <v>6490902.4840000002</v>
+      </c>
+      <c r="L219">
+        <v>0.18495323307648692</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
         <v>887</v>
       </c>
@@ -7543,8 +8911,14 @@
       <c r="J220" s="10">
         <v>105.9</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K220" s="10">
+        <v>6566935.443</v>
+      </c>
+      <c r="L220">
+        <v>0.17998919134494071</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
         <v>888</v>
       </c>
@@ -7575,8 +8949,14 @@
       <c r="J221" s="10">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K221" s="10">
+        <v>6638313.8959999997</v>
+      </c>
+      <c r="L221">
+        <v>0.17737824972535765</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
         <v>889</v>
       </c>
@@ -7607,8 +8987,14 @@
       <c r="J222" s="10">
         <v>105.6</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K222" s="10">
+        <v>6702385.0410000002</v>
+      </c>
+      <c r="L222">
+        <v>0.17548952989196073</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
         <v>890</v>
       </c>
@@ -7639,8 +9025,14 @@
       <c r="J223" s="10">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K223" s="10">
+        <v>6772876.0130000003</v>
+      </c>
+      <c r="L223">
+        <v>0.1746273071779027</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
         <v>891</v>
       </c>
@@ -7671,8 +9063,14 @@
       <c r="J224" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K224" s="10">
+        <v>196859.80600000001</v>
+      </c>
+      <c r="L224">
+        <v>0.7122810026542441</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
         <v>892</v>
       </c>
@@ -7703,8 +9101,14 @@
       <c r="J225" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K225" s="10">
+        <v>200660.42300000001</v>
+      </c>
+      <c r="L225">
+        <v>0.71423750561913246</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
         <v>893</v>
       </c>
@@ -7735,8 +9139,14 @@
       <c r="J226" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K226" s="10">
+        <v>204643.75099999999</v>
+      </c>
+      <c r="L226">
+        <v>0.71601893184610366</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
         <v>894</v>
       </c>
@@ -7767,8 +9177,14 @@
       <c r="J227" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K227" s="10">
+        <v>208774.52499999999</v>
+      </c>
+      <c r="L227">
+        <v>0.71815514847896311</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="7">
         <v>895</v>
       </c>
@@ -7799,8 +9215,14 @@
       <c r="J228" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K228" s="10">
+        <v>212983.133</v>
+      </c>
+      <c r="L228">
+        <v>0.72087821151546305</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="7">
         <v>896</v>
       </c>
@@ -7831,8 +9253,14 @@
       <c r="J229" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K229" s="10">
+        <v>217423.84400000001</v>
+      </c>
+      <c r="L229">
+        <v>0.72352736068818657</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="7">
         <v>897</v>
       </c>
@@ -7863,8 +9291,14 @@
       <c r="J230" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K230" s="10">
+        <v>222058.81</v>
+      </c>
+      <c r="L230">
+        <v>0.72620671974239615</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="7">
         <v>898</v>
       </c>
@@ -7895,8 +9329,14 @@
       <c r="J231" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K231" s="10">
+        <v>226885.02</v>
+      </c>
+      <c r="L231">
+        <v>0.72815825390323263</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="7">
         <v>899</v>
       </c>
@@ -7927,8 +9367,14 @@
       <c r="J232" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K232" s="10">
+        <v>231783.21299999999</v>
+      </c>
+      <c r="L232">
+        <v>0.73099987616445716</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="7">
         <v>900</v>
       </c>
@@ -7959,8 +9405,14 @@
       <c r="J233" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K233" s="10">
+        <v>236716.125</v>
+      </c>
+      <c r="L233">
+        <v>0.73759825191460859</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="7">
         <v>901</v>
       </c>
@@ -7991,8 +9443,14 @@
       <c r="J234" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K234" s="10">
+        <v>242219.489</v>
+      </c>
+      <c r="L234">
+        <v>0.74525134515497227</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="7">
         <v>902</v>
       </c>
@@ -8023,8 +9481,14 @@
       <c r="J235" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K235" s="10">
+        <v>248013.72099999999</v>
+      </c>
+      <c r="L235">
+        <v>0.75252368799385905</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="7">
         <v>903</v>
       </c>
@@ -8055,8 +9519,14 @@
       <c r="J236" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K236" s="10">
+        <v>254093.53400000001</v>
+      </c>
+      <c r="L236">
+        <v>0.75882725925642802</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="7">
         <v>904</v>
       </c>
@@ -8087,8 +9557,14 @@
       <c r="J237" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K237" s="10">
+        <v>260392.095</v>
+      </c>
+      <c r="L237">
+        <v>0.75865129469464121</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="7">
         <v>905</v>
       </c>
@@ -8119,8 +9595,14 @@
       <c r="J238" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K238" s="10">
+        <v>266863.66100000002</v>
+      </c>
+      <c r="L238">
+        <v>0.75775959620069799</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="7">
         <v>906</v>
       </c>
@@ -8151,8 +9633,14 @@
       <c r="J239" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K239" s="10">
+        <v>273667.39199999999</v>
+      </c>
+      <c r="L239">
+        <v>0.75431018102441671</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="7">
         <v>907</v>
       </c>
@@ -8183,8 +9671,14 @@
       <c r="J240" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K240" s="10">
+        <v>280679.91100000002</v>
+      </c>
+      <c r="L240">
+        <v>0.75190774875227895</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="7">
         <v>908</v>
       </c>
@@ -8215,8 +9709,14 @@
       <c r="J241" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K241" s="10">
+        <v>287908.408</v>
+      </c>
+      <c r="L241">
+        <v>0.75115868099274119</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="7">
         <v>909</v>
       </c>
@@ -8247,8 +9747,14 @@
       <c r="J242" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K242" s="10">
+        <v>295524.40999999997</v>
+      </c>
+      <c r="L242">
+        <v>0.75099887687788647</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="7">
         <v>910</v>
       </c>
@@ -8279,8 +9785,14 @@
       <c r="J243" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K243" s="10">
+        <v>303374.25699999998</v>
+      </c>
+      <c r="L243">
+        <v>0.76285114725472569</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="7">
         <v>911</v>
       </c>
@@ -8311,8 +9823,14 @@
       <c r="J244" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K244" s="10">
+        <v>311299.04399999999</v>
+      </c>
+      <c r="L244">
+        <v>0.77927736906252754</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="7">
         <v>912</v>
       </c>
@@ -8343,8 +9861,14 @@
       <c r="J245" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K245" s="10">
+        <v>319061.23700000002</v>
+      </c>
+      <c r="L245">
+        <v>0.79498720178283522</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="7">
         <v>913</v>
       </c>
@@ -8375,8 +9899,14 @@
       <c r="J246" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K246" s="10">
+        <v>326132.22100000002</v>
+      </c>
+      <c r="L246">
+        <v>0.81022629162421822</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="7">
         <v>914</v>
       </c>
@@ -8407,8 +9937,14 @@
       <c r="J247" s="10">
         <v>104.3</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K247" s="10">
+        <v>334518.59600000002</v>
+      </c>
+      <c r="L247">
+        <v>0.81735545727329317</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="7">
         <v>915</v>
       </c>
@@ -8439,8 +9975,14 @@
       <c r="J248" s="10">
         <v>104.3</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K248" s="10">
+        <v>343648.663</v>
+      </c>
+      <c r="L248">
+        <v>0.82336767304693403</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="7">
         <v>916</v>
       </c>
@@ -8471,8 +10013,14 @@
       <c r="J249" s="10">
         <v>104.3</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K249" s="10">
+        <v>352610.00599999999</v>
+      </c>
+      <c r="L249">
+        <v>0.81639572077259781</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="7">
         <v>917</v>
       </c>
@@ -8503,8 +10051,14 @@
       <c r="J250" s="10">
         <v>104.3</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K250" s="10">
+        <v>361254.75699999998</v>
+      </c>
+      <c r="L250">
+        <v>0.81398623631134637</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="7">
         <v>918</v>
       </c>
@@ -8535,8 +10089,14 @@
       <c r="J251" s="10">
         <v>104.3</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K251" s="10">
+        <v>370039.35100000002</v>
+      </c>
+      <c r="L251">
+        <v>0.80928744251310714</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="7">
         <v>919</v>
       </c>
@@ -8567,8 +10127,14 @@
       <c r="J252" s="10">
         <v>104.3</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K252" s="10">
+        <v>378729.652</v>
+      </c>
+      <c r="L252">
+        <v>0.80006252058658456</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="7">
         <v>920</v>
       </c>
@@ -8599,8 +10165,14 @@
       <c r="J253" s="10">
         <v>104.3</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K253" s="10">
+        <v>388792.408</v>
+      </c>
+      <c r="L253">
+        <v>0.80422738090091517</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="7">
         <v>921</v>
       </c>
@@ -8631,8 +10203,14 @@
       <c r="J254" s="10">
         <v>104.3</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K254" s="10">
+        <v>398830.766</v>
+      </c>
+      <c r="L254">
+        <v>0.79843664818977389</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="7">
         <v>922</v>
       </c>
@@ -8663,8 +10241,14 @@
       <c r="J255" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K255" s="10">
+        <v>407381.44699999999</v>
+      </c>
+      <c r="L255">
+        <v>0.78753930097361557</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="7">
         <v>923</v>
       </c>
@@ -8695,8 +10279,14 @@
       <c r="J256" s="10">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K256" s="10">
+        <v>416913.359</v>
+      </c>
+      <c r="L256">
+        <v>0.78029785560313503</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="7">
         <v>924</v>
       </c>
@@ -8727,8 +10317,14 @@
       <c r="J257" s="10">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K257" s="10">
+        <v>428413.49699999997</v>
+      </c>
+      <c r="L257">
+        <v>0.77182605663798687</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="7">
         <v>925</v>
       </c>
@@ -8759,8 +10355,14 @@
       <c r="J258" s="10">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K258" s="10">
+        <v>440079.51899999997</v>
+      </c>
+      <c r="L258">
+        <v>0.77027556467584668</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="7">
         <v>926</v>
       </c>
@@ -8791,8 +10393,14 @@
       <c r="J259" s="10">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K259" s="10">
+        <v>452028.45400000003</v>
+      </c>
+      <c r="L259">
+        <v>0.76570644378063857</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="7">
         <v>927</v>
       </c>
@@ -8823,8 +10431,14 @@
       <c r="J260" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K260" s="10">
+        <v>463922.75300000003</v>
+      </c>
+      <c r="L260">
+        <v>0.75848424705308637</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="7">
         <v>928</v>
       </c>
@@ -8855,8 +10469,14 @@
       <c r="J261" s="10">
         <v>104.3</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K261" s="10">
+        <v>475986.81599999999</v>
+      </c>
+      <c r="L261">
+        <v>0.75683944993972274</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="7">
         <v>929</v>
       </c>
@@ -8887,8 +10507,14 @@
       <c r="J262" s="10">
         <v>104.3</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K262" s="10">
+        <v>488392.60700000002</v>
+      </c>
+      <c r="L262">
+        <v>0.75106849436809753</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="7">
         <v>930</v>
       </c>
@@ -8919,8 +10545,14 @@
       <c r="J263" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K263" s="10">
+        <v>500641.58500000002</v>
+      </c>
+      <c r="L263">
+        <v>0.7443670505317691</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="7">
         <v>931</v>
       </c>
@@ -8951,8 +10583,14 @@
       <c r="J264" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K264" s="10">
+        <v>513581.33100000001</v>
+      </c>
+      <c r="L264">
+        <v>0.74165390564011757</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="7">
         <v>932</v>
       </c>
@@ -8983,8 +10621,14 @@
       <c r="J265" s="10">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K265" s="10">
+        <v>526052.304</v>
+      </c>
+      <c r="L265">
+        <v>0.73365214269644186</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="7">
         <v>933</v>
       </c>
@@ -9015,8 +10659,14 @@
       <c r="J266" s="10">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K266" s="10">
+        <v>539390.12100000004</v>
+      </c>
+      <c r="L266">
+        <v>0.72589371728593444</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="7">
         <v>934</v>
       </c>
@@ -9047,8 +10697,14 @@
       <c r="J267" s="10">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K267" s="10">
+        <v>554676.56499999994</v>
+      </c>
+      <c r="L267">
+        <v>0.72970849237158608</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="7">
         <v>935</v>
       </c>
@@ -9079,8 +10735,14 @@
       <c r="J268" s="10">
         <v>104</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K268" s="10">
+        <v>570564.13</v>
+      </c>
+      <c r="L268">
+        <v>0.7249710913302595</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="7">
         <v>936</v>
       </c>
@@ -9111,8 +10773,14 @@
       <c r="J269" s="10">
         <v>104</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K269" s="10">
+        <v>585759.20900000003</v>
+      </c>
+      <c r="L269">
+        <v>0.71862924821724816</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="7">
         <v>937</v>
       </c>
@@ -9143,8 +10811,14 @@
       <c r="J270" s="10">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K270" s="10">
+        <v>601729.86699999997</v>
+      </c>
+      <c r="L270">
+        <v>0.71868046396972363</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="7">
         <v>938</v>
       </c>
@@ -9175,8 +10849,14 @@
       <c r="J271" s="10">
         <v>104</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K271" s="10">
+        <v>617359.44799999997</v>
+      </c>
+      <c r="L271">
+        <v>0.71396412807470322</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="7">
         <v>939</v>
       </c>
@@ -9207,8 +10887,14 @@
       <c r="J272" s="10">
         <v>104</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K272" s="10">
+        <v>633454.03</v>
+      </c>
+      <c r="L272">
+        <v>0.71133070224527584</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="7">
         <v>940</v>
       </c>
@@ -9239,8 +10925,14 @@
       <c r="J273" s="10">
         <v>104</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K273" s="10">
+        <v>649629.50800000003</v>
+      </c>
+      <c r="L273">
+        <v>0.71291604567937827</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="7">
         <v>941</v>
       </c>
@@ -9271,8 +10963,14 @@
       <c r="J274" s="10">
         <v>104</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K274" s="10">
+        <v>665889.22400000005</v>
+      </c>
+      <c r="L274">
+        <v>0.70839680685386786</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="7">
         <v>942</v>
       </c>
@@ -9303,8 +11001,14 @@
       <c r="J275" s="10">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K275" s="10">
+        <v>681659.01399999997</v>
+      </c>
+      <c r="L275">
+        <v>0.70280417358348035</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="7">
         <v>943</v>
       </c>
@@ -9335,8 +11039,14 @@
       <c r="J276" s="10">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K276" s="10">
+        <v>698391.34600000002</v>
+      </c>
+      <c r="L276">
+        <v>0.68957985054986637</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="7">
         <v>944</v>
       </c>
@@ -9367,8 +11077,14 @@
       <c r="J277" s="10">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K277" s="10">
+        <v>716442.11399999994</v>
+      </c>
+      <c r="L277">
+        <v>0.67903978631831241</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="7">
         <v>945</v>
       </c>
@@ -9399,8 +11115,14 @@
       <c r="J278" s="10">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K278" s="10">
+        <v>734089.04799999995</v>
+      </c>
+      <c r="L278">
+        <v>0.67104420280085697</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="7">
         <v>946</v>
       </c>
@@ -9431,8 +11153,14 @@
       <c r="J279" s="10">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K279" s="10">
+        <v>751662.26899999997</v>
+      </c>
+      <c r="L279">
+        <v>0.65486405304720707</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="7">
         <v>947</v>
       </c>
@@ -9463,8 +11191,14 @@
       <c r="J280" s="10">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K280" s="10">
+        <v>770144.23199999996</v>
+      </c>
+      <c r="L280">
+        <v>0.64494971118604694</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="7">
         <v>948</v>
       </c>
@@ -9495,8 +11229,14 @@
       <c r="J281" s="10">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K281" s="10">
+        <v>788647.10100000002</v>
+      </c>
+      <c r="L281">
+        <v>0.63756260482342153</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="7">
         <v>949</v>
       </c>
@@ -9527,8 +11267,14 @@
       <c r="J282" s="10">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K282" s="10">
+        <v>806724.29799999995</v>
+      </c>
+      <c r="L282">
+        <v>0.62144241997282701</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="7">
         <v>950</v>
       </c>
@@ -9559,8 +11305,14 @@
       <c r="J283" s="10">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K283" s="10">
+        <v>826159.54500000004</v>
+      </c>
+      <c r="L283">
+        <v>0.60628943045135419</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="7">
         <v>951</v>
       </c>
@@ -9591,8 +11343,14 @@
       <c r="J284" s="10">
         <v>103.7</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K284" s="10">
+        <v>845570.37399999995</v>
+      </c>
+      <c r="L284">
+        <v>0.60107983395359599</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="7">
         <v>952</v>
       </c>
@@ -9623,8 +11381,14 @@
       <c r="J285" s="10">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K285" s="10">
+        <v>865489.46799999999</v>
+      </c>
+      <c r="L285">
+        <v>0.58890133137934386</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="7">
         <v>953</v>
       </c>
@@ -9655,8 +11419,14 @@
       <c r="J286" s="10">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K286" s="10">
+        <v>886251.98800000001</v>
+      </c>
+      <c r="L286">
+        <v>0.58106126358274524</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="7">
         <v>954</v>
       </c>
@@ -9687,8 +11457,14 @@
       <c r="J287" s="10">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K287" s="10">
+        <v>907496.799</v>
+      </c>
+      <c r="L287">
+        <v>0.5713398665111985</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="7">
         <v>955</v>
       </c>
@@ -9719,8 +11495,14 @@
       <c r="J288" s="10">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K288" s="10">
+        <v>929428.76399999997</v>
+      </c>
+      <c r="L288">
+        <v>0.55790225145216188</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="7">
         <v>956</v>
       </c>
@@ -9751,8 +11533,14 @@
       <c r="J289" s="10">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K289" s="10">
+        <v>951533.04</v>
+      </c>
+      <c r="L289">
+        <v>0.54774903034370725</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="7">
         <v>957</v>
       </c>
@@ -9783,8 +11571,14 @@
       <c r="J290" s="10">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K290" s="10">
+        <v>973884.054</v>
+      </c>
+      <c r="L290">
+        <v>0.53912793606537479</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="7">
         <v>958</v>
       </c>
@@ -9815,8 +11609,14 @@
       <c r="J291" s="10">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K291" s="10">
+        <v>997353.201</v>
+      </c>
+      <c r="L291">
+        <v>0.52721412983162419</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="7">
         <v>959</v>
       </c>
@@ -9847,8 +11647,14 @@
       <c r="J292" s="10">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K292" s="10">
+        <v>1021047.67</v>
+      </c>
+      <c r="L292">
+        <v>0.52020822886751206</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="7">
         <v>960</v>
       </c>
@@ -9879,8 +11685,14 @@
       <c r="J293" s="10">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K293" s="10">
+        <v>1045593.329</v>
+      </c>
+      <c r="L293">
+        <v>0.51326188214423851</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="7">
         <v>961</v>
       </c>
@@ -9911,8 +11723,14 @@
       <c r="J294" s="10">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K294" s="10">
+        <v>1070860.483</v>
+      </c>
+      <c r="L294">
+        <v>0.50704579038985786</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="7">
         <v>962</v>
       </c>
@@ -9943,8 +11761,14 @@
       <c r="J295" s="10">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K295" s="10">
+        <v>1096846.656</v>
+      </c>
+      <c r="L295">
+        <v>0.49834313393758484</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="7">
         <v>963</v>
       </c>
@@ -9975,8 +11799,14 @@
       <c r="J296" s="10">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K296" s="10">
+        <v>1121947.8089999999</v>
+      </c>
+      <c r="L296">
+        <v>0.49105519488562949</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="7">
         <v>964</v>
       </c>
@@ -10006,6 +11836,12 @@
       </c>
       <c r="J297" s="10">
         <v>103.9</v>
+      </c>
+      <c r="K297" s="10">
+        <v>1147676.0120000001</v>
+      </c>
+      <c r="L297">
+        <v>0.4850569273726355</v>
       </c>
     </row>
   </sheetData>
